--- a/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>Serie</t>
   </si>
@@ -1055,6 +1055,12 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P332"/>
+  <dimension ref="A1:P334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12942,6 +12948,106 @@
         <v>169</v>
       </c>
     </row>
+    <row r="333" spans="1:16">
+      <c r="A333" t="s">
+        <v>347</v>
+      </c>
+      <c r="B333">
+        <v>323.4</v>
+      </c>
+      <c r="C333">
+        <v>390</v>
+      </c>
+      <c r="D333">
+        <v>199.7</v>
+      </c>
+      <c r="E333">
+        <v>316</v>
+      </c>
+      <c r="F333">
+        <v>90.3</v>
+      </c>
+      <c r="G333">
+        <v>118.8</v>
+      </c>
+      <c r="H333">
+        <v>16.5</v>
+      </c>
+      <c r="I333">
+        <v>170.5</v>
+      </c>
+      <c r="J333">
+        <v>478.4</v>
+      </c>
+      <c r="K333">
+        <v>1596.7</v>
+      </c>
+      <c r="L333">
+        <v>272.9</v>
+      </c>
+      <c r="M333">
+        <v>267.9</v>
+      </c>
+      <c r="N333">
+        <v>144.2</v>
+      </c>
+      <c r="O333">
+        <v>356.3</v>
+      </c>
+      <c r="P333">
+        <v>170.3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16">
+      <c r="A334" t="s">
+        <v>348</v>
+      </c>
+      <c r="B334">
+        <v>320.8</v>
+      </c>
+      <c r="C334">
+        <v>391.5</v>
+      </c>
+      <c r="D334">
+        <v>203.9</v>
+      </c>
+      <c r="E334">
+        <v>312.9</v>
+      </c>
+      <c r="F334">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="G334">
+        <v>121.2</v>
+      </c>
+      <c r="H334">
+        <v>15.9</v>
+      </c>
+      <c r="I334">
+        <v>161.1</v>
+      </c>
+      <c r="J334">
+        <v>474.6</v>
+      </c>
+      <c r="K334">
+        <v>1566.8</v>
+      </c>
+      <c r="L334">
+        <v>286</v>
+      </c>
+      <c r="M334">
+        <v>277.4</v>
+      </c>
+      <c r="N334">
+        <v>138.3</v>
+      </c>
+      <c r="O334">
+        <v>361.9</v>
+      </c>
+      <c r="P334">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>Serie</t>
   </si>
@@ -1061,6 +1061,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P334"/>
+  <dimension ref="A1:P335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13048,6 +13051,56 @@
         <v>183</v>
       </c>
     </row>
+    <row r="335" spans="1:16">
+      <c r="A335" t="s">
+        <v>349</v>
+      </c>
+      <c r="B335">
+        <v>315.9</v>
+      </c>
+      <c r="C335">
+        <v>386.7</v>
+      </c>
+      <c r="D335">
+        <v>199.1</v>
+      </c>
+      <c r="E335">
+        <v>310</v>
+      </c>
+      <c r="F335">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="G335">
+        <v>116.8</v>
+      </c>
+      <c r="H335">
+        <v>13.3</v>
+      </c>
+      <c r="I335">
+        <v>152.5</v>
+      </c>
+      <c r="J335">
+        <v>483.1</v>
+      </c>
+      <c r="K335">
+        <v>1543.7</v>
+      </c>
+      <c r="L335">
+        <v>292.6</v>
+      </c>
+      <c r="M335">
+        <v>282.3</v>
+      </c>
+      <c r="N335">
+        <v>141.4</v>
+      </c>
+      <c r="O335">
+        <v>350.6</v>
+      </c>
+      <c r="P335">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Mensual.xlsx
+++ b/12/2/Tasas de Spreads soberanos EMBI 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
   <si>
     <t>Serie</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P335"/>
+  <dimension ref="A1:P336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13101,6 +13104,56 @@
         <v>174</v>
       </c>
     </row>
+    <row r="336" spans="1:16">
+      <c r="A336" t="s">
+        <v>350</v>
+      </c>
+      <c r="B336">
+        <v>327.2</v>
+      </c>
+      <c r="C336">
+        <v>397.9</v>
+      </c>
+      <c r="D336">
+        <v>207.5</v>
+      </c>
+      <c r="E336">
+        <v>320.9</v>
+      </c>
+      <c r="F336">
+        <v>87.3</v>
+      </c>
+      <c r="G336">
+        <v>120.3</v>
+      </c>
+      <c r="H336">
+        <v>21.2</v>
+      </c>
+      <c r="I336">
+        <v>155.4</v>
+      </c>
+      <c r="J336">
+        <v>513.7</v>
+      </c>
+      <c r="K336">
+        <v>1636.9</v>
+      </c>
+      <c r="L336">
+        <v>312.9</v>
+      </c>
+      <c r="M336">
+        <v>290.9</v>
+      </c>
+      <c r="N336">
+        <v>156.4</v>
+      </c>
+      <c r="O336">
+        <v>355.8</v>
+      </c>
+      <c r="P336">
+        <v>171.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
